--- a/biology/Zoologie/Colimarena/Colimarena.xlsx
+++ b/biology/Zoologie/Colimarena/Colimarena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colimarena est un genre d'araignées aranéomorphes de la famille des Zodariidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colimarena est un genre d'araignées aranéomorphes de la famille des Zodariidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Colima au Mexique[1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Colima au Mexique,
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre mesurent de 3,5 à 6,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre mesurent de 3,5 à 6,0 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 01/03/2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 01/03/2022) :
 Colimarena colima (Jocqué &amp; Baert, 2005)
 Colimarena manzanillo (Jocqué &amp; Baert, 2005)</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Colima Jocqué &amp; Baert, 2005 préoccupé par Colima Goodnight &amp; Goodnight, 1945 a été remplacé par Colimarena par Jocqué et Baert en 2021.
 </t>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jocqué &amp; Baert, 2021 : « Colimarena, a new replacement name for the genus Colima Jocqué &amp; Baert, 2005 (Araneae: Zodariidae). » Bulletin de la Société Royale Belge d'Entomologie, vol. 157, no 2/3, p. 203.
 Jocqué &amp; Baehr, 2005 : « Two new neotropical genera of the spider family Zodariidae (Araneae). » Bulletin de l'Institut royal des Sciences naturelles de Belgique (Entomologie), vol. 75, p. 119-133.</t>
